--- a/Project Outline.xlsx
+++ b/Project Outline.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ale\Desktop\MIST6150\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsirsika\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36582F7-8910-4E7E-9BA7-E38E4C0CCFB9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5448"/>
+    <workbookView xWindow="2565" yWindow="1275" windowWidth="17085" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="18">
   <si>
     <t>Modify df_cri to have new city column, with inputs from longitude and latitue</t>
   </si>
@@ -66,12 +67,24 @@
   </si>
   <si>
     <t>Due Date</t>
+  </si>
+  <si>
+    <t>Next Meeting - Saturday</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Code to add 'zip' to df_cri is ready; waiting for item 2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,12 +102,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,9 +134,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -122,6 +146,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,121 +447,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="69.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="69.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="E1" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="13">
         <v>43541</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="E2" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="7">
         <v>43541</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="7">
         <v>43541</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7">
+        <v>43547</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
